--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2633577.035528212</v>
+        <v>2631689.454011811</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>571734.1914873444</v>
+        <v>625241.8547668791</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>159.2945703679493</v>
+        <v>160.5713327074068</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>84.84244993117485</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>51.05460352320711</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>357.1844414962779</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>311.4936872159398</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>218.8739468244161</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>16.91544265059219</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>13.66290552425048</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>89.30279568673414</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.7268375758688</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.12759070766438</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>73.21532344290721</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>176.9527187969212</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1816,19 +1816,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>268.3561440099141</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>88.48268081938879</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,19 +2056,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>204.1291651532056</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2096,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V22" t="n">
-        <v>169.7438101404422</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2527,7 +2527,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750033</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2713,19 +2713,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>169.1770053157907</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.09524045125491</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965521</v>
+        <v>93.41221638965547</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801203</v>
+        <v>91.23070601801228</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943741</v>
+        <v>90.21779139437436</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348207</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897898</v>
+        <v>93.71057173897924</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571483</v>
+        <v>55.21598883571509</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550464</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298324</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700205</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604803</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>34.54225047951641</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463068</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463131</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463132</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463139</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>604.6780100036608</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="C2" t="n">
-        <v>235.7154930632491</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="D2" t="n">
-        <v>235.7154930632491</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304456</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1364.743608328862</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X2" t="n">
-        <v>991.2778500677825</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y2" t="n">
-        <v>991.2778500677825</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>286.5323736931989</v>
+        <v>494.9102127870964</v>
       </c>
       <c r="C4" t="n">
-        <v>286.5323736931989</v>
+        <v>494.9102127870964</v>
       </c>
       <c r="D4" t="n">
-        <v>286.5323736931989</v>
+        <v>494.9102127870964</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>494.9102127870964</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>286.5323736931989</v>
+        <v>676.5586776173361</v>
       </c>
       <c r="U4" t="n">
-        <v>286.5323736931989</v>
+        <v>676.5586776173361</v>
       </c>
       <c r="V4" t="n">
-        <v>286.5323736931989</v>
+        <v>676.5586776173361</v>
       </c>
       <c r="W4" t="n">
-        <v>286.5323736931989</v>
+        <v>676.5586776173361</v>
       </c>
       <c r="X4" t="n">
-        <v>286.5323736931989</v>
+        <v>676.5586776173361</v>
       </c>
       <c r="Y4" t="n">
-        <v>286.5323736931989</v>
+        <v>676.5586776173361</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.683768698139</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C5" t="n">
-        <v>825.7212517577275</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D5" t="n">
-        <v>825.7212517577275</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E5" t="n">
-        <v>825.7212517577275</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F5" t="n">
-        <v>414.7353469681199</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>368.5830699172734</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.683768698139</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="6">
@@ -4644,31 +4644,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>477.6272702879189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>477.6272702879189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>222.942782082032</v>
+        <v>711.0426784987656</v>
       </c>
       <c r="W7" t="n">
-        <v>222.942782082032</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="X7" t="n">
-        <v>222.942782082032</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.68376869814</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="C8" t="n">
-        <v>825.7212517577284</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="D8" t="n">
-        <v>467.4555531509779</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="E8" t="n">
-        <v>81.66730055273365</v>
+        <v>555.1337307379863</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>144.1478259483787</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,13 +4817,13 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4835,19 +4835,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205146</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935032</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673952</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.68376869814</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5033,28 +5033,28 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M12" t="n">
-        <v>2056.693778606511</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N12" t="n">
-        <v>2623.573505376138</v>
+        <v>1501.327696442332</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>415.509052552801</v>
+        <v>171.1719636248386</v>
       </c>
       <c r="C13" t="n">
-        <v>415.509052552801</v>
+        <v>171.1719636248386</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>171.1719636248386</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>171.1719636248386</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>171.1719636248386</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028587</v>
@@ -5212,7 +5212,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609661</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550792</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="W13" t="n">
-        <v>441.9005583181186</v>
+        <v>619.954093666386</v>
       </c>
       <c r="X13" t="n">
-        <v>441.9005583181186</v>
+        <v>391.9645427683687</v>
       </c>
       <c r="Y13" t="n">
-        <v>441.9005583181186</v>
+        <v>171.1719636248386</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5264,16 +5264,16 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
@@ -5288,40 +5288,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5352,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
@@ -5364,10 +5364,10 @@
         <v>1288.32563221405</v>
       </c>
       <c r="M15" t="n">
-        <v>2056.693778606511</v>
+        <v>2030.299435654558</v>
       </c>
       <c r="N15" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.1532743881927</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V16" t="n">
-        <v>986.0022165609664</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W16" t="n">
-        <v>714.9354044297402</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X16" t="n">
-        <v>486.9458535317228</v>
+        <v>665.685973528613</v>
       </c>
       <c r="Y16" t="n">
-        <v>266.1532743881927</v>
+        <v>444.8933943850829</v>
       </c>
     </row>
     <row r="17">
@@ -5549,13 +5549,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5595,10 +5595,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L18" t="n">
-        <v>381.3300194168667</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M18" t="n">
         <v>1149.698165809328</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028586</v>
+        <v>337.0115451844524</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028586</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028586</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028586</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028586</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028586</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799365</v>
@@ -5701,22 +5701,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765189</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>531.397718270632</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>785.7936752259999</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028586</v>
+        <v>557.8041243279825</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028586</v>
+        <v>337.0115451844524</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5774,28 +5774,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>334.288126757867</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N21" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5941,7 +5941,7 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
         <v>614.6238123952638</v>
@@ -5950,10 +5950,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5969,22 +5969,22 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823794</v>
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>334.288126757867</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6175,22 +6175,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6203,34 +6203,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6251,22 +6251,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>334.288126757867</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>879.2482765610112</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>710.3120936331043</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207686</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383755</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,7 +6388,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6400,7 +6400,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557903</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1328.030406602559</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1328.030406602559</v>
+        <v>869.3083006011508</v>
       </c>
       <c r="V28" t="n">
-        <v>1328.030406602559</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W28" t="n">
-        <v>1328.030406602559</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>1100.040855704541</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>879.2482765610112</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6440,67 +6440,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028587</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>865.5852378527475</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>1669.996816116898</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>2339.460577419557</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.8748194215246</v>
+        <v>750.874819421526</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749884</v>
+        <v>637.69950177499</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440236</v>
+        <v>543.343727644025</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430014</v>
+        <v>451.1914993430024</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264619</v>
+        <v>360.0624171264627</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>247.6479607276539</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>152.9908175569678</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.251007986467</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933496</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667502</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962056</v>
+        <v>997.6688721962045</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286023</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353691</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252998</v>
+        <v>1791.966918252996</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323875</v>
+        <v>1623.942368323872</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818804</v>
+        <v>1390.574594818801</v>
       </c>
       <c r="V31" t="n">
-        <v>1390.574594818804</v>
+        <v>1191.650971894285</v>
       </c>
       <c r="W31" t="n">
-        <v>1156.918290063214</v>
+        <v>957.9946671386945</v>
       </c>
       <c r="X31" t="n">
-        <v>984.6896044465678</v>
+        <v>785.7659815220477</v>
       </c>
       <c r="Y31" t="n">
-        <v>819.6578905844084</v>
+        <v>750.874819421526</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,40 +6683,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6780,19 +6780,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>629.3975440735812</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1433.809122337732</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229669</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103123</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982966</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6901,7 +6901,7 @@
         <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,10 +6923,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,10 +6935,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6947,7 +6947,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6962,22 +6962,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,19 +7014,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>381.3300194168668</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>1149.698165809328</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
-        <v>1954.109744073479</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,49 +7157,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,10 +7248,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
         <v>508.1073603047985</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108338</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229679</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506732</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E40" t="n">
-        <v>398.954596308321</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982968</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
@@ -7333,25 +7333,25 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010324</v>
+        <v>772.2886129010311</v>
       </c>
     </row>
     <row r="41">
@@ -7397,49 +7397,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7485,22 +7485,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>711.1141612171746</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>1479.482307609636</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>2283.893885873787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982975</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7585,16 +7585,16 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028587</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605672</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
         <v>221.529509210313</v>
@@ -7801,55 +7801,55 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P46" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013777</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8781,13 +8781,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9018,7 +9018,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,28 +9954,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10203,16 +10203,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,16 +10440,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,7 +10677,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -10686,7 +10686,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10923,7 +10923,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11151,7 +11151,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11160,7 +11160,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.7043894742729</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>93.27824502047038</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>2.879261385016065</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23704,19 +23704,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>18.16685432667686</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>78.76414027923904</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>82.39383318338542</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V22" t="n">
-        <v>82.39383318338585</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338594</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,19 +24601,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="T28" t="n">
-        <v>52.37055574259854</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>56.53348310212524</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523564</v>
+        <v>54.7610957752359</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>128.8391462440215</v>
       </c>
     </row>
     <row r="32">
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>6.608047442568932e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>801609.5724623034</v>
+        <v>801609.5724623036</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>801609.5724623036</v>
+        <v>801609.5724623033</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>801609.5724623037</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>833985.3815578041</v>
+        <v>833985.3815578038</v>
       </c>
     </row>
     <row r="12">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516048</v>
@@ -26323,22 +26323,22 @@
         <v>566992.1366196777</v>
       </c>
       <c r="F2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="G2" t="n">
+        <v>566992.1366196777</v>
+      </c>
+      <c r="H2" t="n">
+        <v>566992.1366196773</v>
+      </c>
+      <c r="I2" t="n">
         <v>566992.1366196779</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>566992.1366196775</v>
       </c>
-      <c r="H2" t="n">
-        <v>566992.1366196772</v>
-      </c>
-      <c r="I2" t="n">
-        <v>566992.1366196777</v>
-      </c>
-      <c r="J2" t="n">
-        <v>566992.1366196778</v>
-      </c>
       <c r="K2" t="n">
-        <v>589892.099150641</v>
+        <v>589892.0991506412</v>
       </c>
       <c r="L2" t="n">
         <v>595255.2831516047</v>
@@ -26347,10 +26347,10 @@
         <v>595255.2831516046</v>
       </c>
       <c r="N2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516042</v>
       </c>
       <c r="O2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516042</v>
       </c>
       <c r="P2" t="n">
         <v>595255.2831516047</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284551</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.9068008668</v>
+        <v>10342.90680086701</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284546</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758902</v>
+      </c>
+      <c r="H4" t="n">
         <v>787.7936905758411</v>
       </c>
-      <c r="G4" t="n">
-        <v>787.7936905758875</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758811</v>
-      </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758411</v>
       </c>
       <c r="J4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477241</v>
+        <v>18952.41620477235</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="N4" t="n">
         <v>23206.58093189636</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189633</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26494,7 +26494,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26503,13 +26503,13 @@
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-216630.8133069681</v>
+        <v>-216630.8133069683</v>
       </c>
       <c r="C6" t="n">
-        <v>373337.0659075761</v>
+        <v>373337.0659075764</v>
       </c>
       <c r="D6" t="n">
-        <v>373337.0659075763</v>
+        <v>373337.0659075762</v>
       </c>
       <c r="E6" t="n">
-        <v>-50943.01949651088</v>
+        <v>-51040.47862248328</v>
       </c>
       <c r="F6" t="n">
-        <v>474217.0169803854</v>
+        <v>474119.5578544131</v>
       </c>
       <c r="G6" t="n">
-        <v>474217.0169803851</v>
+        <v>474119.557854413</v>
       </c>
       <c r="H6" t="n">
-        <v>474217.0169803847</v>
+        <v>474119.5578544126</v>
       </c>
       <c r="I6" t="n">
-        <v>474217.0169803852</v>
+        <v>474119.5578544132</v>
       </c>
       <c r="J6" t="n">
-        <v>297793.7977877923</v>
+        <v>297696.33866182</v>
       </c>
       <c r="K6" t="n">
-        <v>430148.8691128001</v>
+        <v>430130.3753748664</v>
       </c>
       <c r="L6" t="n">
-        <v>463990.6895988162</v>
+        <v>463990.6895988159</v>
       </c>
       <c r="M6" t="n">
         <v>339532.5811658457</v>
       </c>
       <c r="N6" t="n">
-        <v>474333.5963996828</v>
+        <v>474333.5963996825</v>
       </c>
       <c r="O6" t="n">
-        <v>474333.5963996828</v>
+        <v>474333.5963996825</v>
       </c>
       <c r="P6" t="n">
-        <v>430170.9910968372</v>
+        <v>430170.9910968375</v>
       </c>
     </row>
   </sheetData>
@@ -26707,10 +26707,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964065</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964068</v>
       </c>
-      <c r="O2" t="n">
-        <v>68.13189012964067</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26765,16 +26765,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010835</v>
+        <v>12.92863350108377</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855682</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855689</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>222.6357997043125</v>
+        <v>221.359037364855</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>61.59151271539432</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>173.9805019348772</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>56.59972852451705</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>12.42908554841733</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27825,22 +27825,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>6.161158633668208</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>235.2222006732358</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>393.2131402174609</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>324.4813743340608</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060685</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>96.44405126592675</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28816,10 +28816,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29530,7 +29530,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855689</v>
       </c>
     </row>
     <row r="32">
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31364,13 +31364,13 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942293</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31385,7 +31385,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>60.29709682323505</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034983</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>286.6638531320888</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>425.8974584957645</v>
       </c>
       <c r="N15" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32318,10 +32318,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>54.69678998811281</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>380.6314029223778</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813462</v>
@@ -32494,7 +32494,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S20" t="n">
         <v>76.0697047810465</v>
@@ -32549,28 +32549,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
@@ -32786,28 +32786,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
@@ -32956,7 +32956,7 @@
         <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
         <v>562.4526372540886</v>
@@ -33023,31 +33023,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33260,31 +33260,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>102.4943942860908</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33497,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>213.9849829127209</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,22 +33734,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>54.69678998811293</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -33758,13 +33758,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961215</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,7 +33980,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
         <v>392.6063366508803</v>
@@ -33995,13 +33995,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,25 +34120,25 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041499</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,22 +34208,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
-        <v>91.84465193776708</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -34232,13 +34232,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34372,7 +34372,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130445</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565518</v>
@@ -34445,31 +34445,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>537.9299279643739</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35732,13 +35732,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>749.4684883237461</v>
       </c>
       <c r="N15" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>286.9827555116978</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>704.2024327503594</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415665</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>239.4656922197789</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
         <v>713.1546070951472</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>286.9827555116977</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412269</v>
+        <v>67.71102679412242</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341605</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491597</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043192</v>
+        <v>94.42895660043165</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>537.5560127407025</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,10 +37236,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>286.9827555116979</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,10 +37473,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
         <v>740.6069989111005</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303341</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
-        <v>343.1107267700522</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38020,7 +38020,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M46" t="n">
         <v>342.4417313086132</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
